--- a/Registration Response Kids Lab.xlsx
+++ b/Registration Response Kids Lab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angga\Project\Kids Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kidslab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A81779-E03C-46BE-B5C5-5E6E0B07D9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF4FA1-F99E-465A-A283-1FB3F8A5ED6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -184,9 +184,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,9 +407,9 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -474,7 +474,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="8">
-        <v>44042</v>
+        <v>36006</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
@@ -503,7 +503,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="8">
-        <v>44042</v>
+        <v>36007</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>13</v>
@@ -532,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="8">
-        <v>44042</v>
+        <v>36008</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>13</v>
@@ -561,7 +561,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="8">
-        <v>44042</v>
+        <v>36009</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
@@ -590,7 +590,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="8">
-        <v>44042</v>
+        <v>36010</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
@@ -619,7 +619,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="8">
-        <v>44041</v>
+        <v>36011</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>26</v>

--- a/Registration Response Kids Lab.xlsx
+++ b/Registration Response Kids Lab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kidslab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kidslab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF4FA1-F99E-465A-A283-1FB3F8A5ED6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59107F4-1D85-44EE-877D-8B3382AF2428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -405,11 +405,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -425,7 +425,7 @@
     <col min="11" max="15" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44042.244837905091</v>
       </c>
@@ -485,8 +485,9 @@
       <c r="J2" s="6">
         <v>44013</v>
       </c>
+      <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44042.246549293981</v>
       </c>
@@ -515,7 +516,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44042.252935763885</v>
       </c>
@@ -544,7 +545,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44042.256216585651</v>
       </c>
@@ -573,7 +574,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44042.257032638889</v>
       </c>
@@ -602,7 +603,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44042.257932141205</v>
       </c>

--- a/Registration Response Kids Lab.xlsx
+++ b/Registration Response Kids Lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kidslab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kidslab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59107F4-1D85-44EE-877D-8B3382AF2428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B17699C-8741-423C-B635-42625333492E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="6">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -513,7 +513,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="6">
-        <v>44013</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -542,7 +542,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="6">
-        <v>44013</v>
+        <v>44107</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6">
-        <v>44013</v>
+        <v>44108</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="6">
-        <v>44013</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="6">
-        <v>44013</v>
+        <v>44110</v>
       </c>
     </row>
   </sheetData>
